--- a/work_function/datasheet.xlsx
+++ b/work_function/datasheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\课程文件\学期4.0课程文件\物理实验\逸出功\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Phy_op\work_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAE76C6-D431-444C-B231-076A4F826473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A052CAE-68DF-4D31-A771-E6ECDEE8EB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -217,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +241,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,11 +267,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,6 +279,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -311,16 +392,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>lg(I_e')~sqrt(Ua)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>曲线</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51540796806121603"/>
+          <c:y val="1.7846670783772219E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -357,18 +444,21 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10240152251884849"/>
-          <c:y val="9.7926135132586134E-2"/>
-          <c:w val="0.87560644560864154"/>
-          <c:h val="0.80091050212713888"/>
+          <c:x val="0.1422108529245911"/>
+          <c:y val="0.13309355827045094"/>
+          <c:w val="0.56745203413886824"/>
+          <c:h val="0.72014037982555645"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>I_f=0.50A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -381,11 +471,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -395,7 +485,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -403,8 +493,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15689055654082365"/>
+                  <c:y val="-4.2212624156713736E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -467,30 +563,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.4881166390211256</c:v>
+                  <c:v>-0.6599526823386066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.4801720062242811</c:v>
+                  <c:v>-0.6520848134983086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4710832997223453</c:v>
+                  <c:v>-0.64493179365114939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4621809049267256</c:v>
+                  <c:v>-0.63770606203576907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4534573365218688</c:v>
+                  <c:v>-0.63096977819084676</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.4449055514216811</c:v>
+                  <c:v>-0.62305824285324141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.4353339357479107</c:v>
+                  <c:v>-0.61546738450575145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,13 +594,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-266F-4857-91C9-78054B78FEB8}"/>
+              <c16:uniqueId val="{0000000B-266F-4857-91C9-78054B78FEB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>I_f=0.53A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -517,11 +616,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -531,7 +630,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -539,8 +638,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1551868327640839"/>
+                  <c:y val="-2.0634457299956204E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -603,30 +708,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:f>Sheet1!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.0438315695246367</c:v>
+                  <c:v>-0.96345094552084776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.034798298974088</c:v>
+                  <c:v>-0.95577392288731744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0268721464003012</c:v>
+                  <c:v>-0.94842304152746015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0177287669604316</c:v>
+                  <c:v>-0.94055018749203922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.0096611452123985</c:v>
+                  <c:v>-0.9337486380310378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.000869458712629</c:v>
+                  <c:v>-0.92617171559889133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.9909742579130898</c:v>
+                  <c:v>-0.91847267375519515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -634,13 +739,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-266F-4857-91C9-78054B78FEB8}"/>
+              <c16:uniqueId val="{00000009-266F-4857-91C9-78054B78FEB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>I_f=0.56A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -653,11 +761,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -667,7 +775,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -675,8 +783,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16029800409430311"/>
+                  <c:y val="-9.3793858488584857E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -739,30 +853,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:f>Sheet1!$B$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.6259852597080884</c:v>
+                  <c:v>-1.2974833025618495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6178027896225464</c:v>
+                  <c:v>-1.290051983489239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6092414712612828</c:v>
+                  <c:v>-1.2824127031445396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.6024075659618833</c:v>
+                  <c:v>-1.2748236985808628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5951662833800619</c:v>
+                  <c:v>-1.2677671197795022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5855280503706972</c:v>
+                  <c:v>-1.2597952644925503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.5774101601485178</c:v>
+                  <c:v>-1.2509597312965428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,13 +884,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-266F-4857-91C9-78054B78FEB8}"/>
+              <c16:uniqueId val="{00000007-266F-4857-91C9-78054B78FEB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>I_f=0.59A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -789,11 +906,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -803,7 +920,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -811,8 +928,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14987121458065589"/>
+                  <c:y val="6.6050090599470441E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -875,30 +998,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$H$7</c:f>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.2974833025618495</c:v>
+                  <c:v>-1.6259852597080884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.290051983489239</c:v>
+                  <c:v>-1.6178027896225464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2824127031445396</c:v>
+                  <c:v>-1.6092414712612828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.2748236985808628</c:v>
+                  <c:v>-1.6024075659618833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2677671197795022</c:v>
+                  <c:v>-1.5951662833800619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2597952644925503</c:v>
+                  <c:v>-1.5855280503706972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2509597312965428</c:v>
+                  <c:v>-1.5774101601485178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,13 +1029,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-266F-4857-91C9-78054B78FEB8}"/>
+              <c16:uniqueId val="{00000005-266F-4857-91C9-78054B78FEB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="1"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>I_f=0.62A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -925,11 +1051,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -939,7 +1065,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -947,8 +1073,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16200172787104286"/>
+                  <c:y val="-1.4966213473758721E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1011,30 +1143,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$H$8</c:f>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.96345094552084776</c:v>
+                  <c:v>-2.0438315695246367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.95577392288731744</c:v>
+                  <c:v>-2.034798298974088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.94842304152746015</c:v>
+                  <c:v>-2.0268721464003012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.94055018749203922</c:v>
+                  <c:v>-2.0177287669604316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.9337486380310378</c:v>
+                  <c:v>-2.0096611452123985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.92617171559889133</c:v>
+                  <c:v>-2.000869458712629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.91847267375519515</c:v>
+                  <c:v>-1.9909742579130898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,13 +1174,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-266F-4857-91C9-78054B78FEB8}"/>
+              <c16:uniqueId val="{00000003-266F-4857-91C9-78054B78FEB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>I_f=0.65A</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1061,11 +1196,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1075,7 +1210,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -1083,8 +1218,14 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16029800409430311"/>
+                  <c:y val="4.4321543229728028E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1147,30 +1288,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-0.6599526823386066</c:v>
+                  <c:v>-2.4881166390211256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.6520848134983086</c:v>
+                  <c:v>-2.4801720062242811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.64493179365114939</c:v>
+                  <c:v>-2.4710832997223453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.63770606203576907</c:v>
+                  <c:v>-2.4621809049267256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.63096977819084676</c:v>
+                  <c:v>-2.4534573365218688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.62305824285324141</c:v>
+                  <c:v>-2.4449055514216811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.61546738450575145</c:v>
+                  <c:v>-2.4353339357479107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,7 +1319,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-266F-4857-91C9-78054B78FEB8}"/>
+              <c16:uniqueId val="{00000001-266F-4857-91C9-78054B78FEB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1197,6 +1338,7 @@
         <c:axId val="1166690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1217,7 +1359,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1251,7 +1393,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1284805264"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -1324,6 +1466,61 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2836,16 +3033,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>150585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>472966</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85734</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2872,16 +3069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71802</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>529002</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>184980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3004,6 +3201,219 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391498</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>110779</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C49FE749-7A9F-4A5E-8430-071C33CB5F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9235953" y="5789315"/>
+          <a:ext cx="328881" cy="260307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52839</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280285</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61C8480-A92E-4F29-BC2B-15E6751FEC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8897294" y="2128224"/>
+          <a:ext cx="837046" cy="260490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>442679</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>148157</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8D7562-D0D2-48CD-9FCD-76099E35566B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6239134" y="3905920"/>
+          <a:ext cx="315078" cy="179562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3274,13 +3684,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P31" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36:AB43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -3315,25 +3726,25 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="15">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="15">
         <v>9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="15">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="15">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="15">
         <v>12</v>
       </c>
       <c r="J3" t="s">
@@ -3365,31 +3776,31 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="15">
         <f t="shared" ref="B4:H9" si="0">LOG10(M2)-3</f>
         <v>-2.4881166390211256</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <f t="shared" si="0"/>
         <v>-2.4801720062242811</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <f t="shared" si="0"/>
         <v>-2.4710832997223453</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>-2.4621809049267256</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>-2.4534573365218688</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>-2.4449055514216811</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>-2.4353339357479107</v>
       </c>
@@ -3422,31 +3833,31 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="15">
         <f t="shared" si="0"/>
         <v>-2.0438315695246367</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <f t="shared" si="0"/>
         <v>-2.034798298974088</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>-2.0268721464003012</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>-2.0177287669604316</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>-2.0096611452123985</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="15">
         <f t="shared" si="0"/>
         <v>-2.000869458712629</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="15">
         <f t="shared" si="0"/>
         <v>-1.9909742579130898</v>
       </c>
@@ -3479,31 +3890,31 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <f t="shared" si="0"/>
         <v>-1.6259852597080884</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <f t="shared" si="0"/>
         <v>-1.6178027896225464</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>-1.6092414712612828</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>-1.6024075659618833</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>-1.5951662833800619</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
         <v>-1.5855280503706972</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="15">
         <f t="shared" si="0"/>
         <v>-1.5774101601485178</v>
       </c>
@@ -3536,31 +3947,31 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
         <v>-1.2974833025618495</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <f t="shared" si="0"/>
         <v>-1.290051983489239</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>-1.2824127031445396</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>-1.2748236985808628</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>-1.2677671197795022</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
         <v>-1.2597952644925503</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="15">
         <f t="shared" si="0"/>
         <v>-1.2509597312965428</v>
       </c>
@@ -3593,31 +4004,31 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
         <v>-0.96345094552084776</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="15">
         <f t="shared" si="0"/>
         <v>-0.95577392288731744</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>-0.94842304152746015</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>-0.94055018749203922</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>-0.9337486380310378</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
         <v>-0.92617171559889133</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="15">
         <f t="shared" si="0"/>
         <v>-0.91847267375519515</v>
       </c>
@@ -3629,31 +4040,31 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="15">
         <f t="shared" si="0"/>
         <v>-0.6599526823386066</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
         <v>-0.6520848134983086</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>-0.64493179365114939</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>-0.63770606203576907</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>-0.63096977819084676</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
         <v>-0.62305824285324141</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>-0.61546738450575145</v>
       </c>
@@ -3719,7 +4130,7 @@
         <v>-0.70378294573341837</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3748,7 +4159,11 @@
         <v>-7.2949171456583759</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S19" s="14"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3775,7 +4190,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -3804,7 +4219,7 @@
         <v>-5.0632911392405066E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +4228,7 @@
         <v>4.5922513037128789</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3822,32 +4237,54 @@
         <v>0.99908189148130844</v>
       </c>
     </row>
-    <row r="35" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="20:28" x14ac:dyDescent="0.25">
-      <c r="T36" s="6" t="s">
+    <row r="35" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="12:28" x14ac:dyDescent="0.25">
+      <c r="T36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="U36" s="8"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="12"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T37" s="7"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
+    <row r="37" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T37" s="9"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
     </row>
-    <row r="38" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="15">
+        <v>1726</v>
+      </c>
+      <c r="M38" s="15">
+        <f>1726+0.6*(1809-1726)</f>
+        <v>1775.8</v>
+      </c>
+      <c r="N38" s="15">
+        <f>1809+0.2*(1901-1809)</f>
+        <v>1827.4</v>
+      </c>
+      <c r="O38" s="15">
+        <f>1901-0.2*(1901-1809)</f>
+        <v>1882.6</v>
+      </c>
+      <c r="P38" s="15">
+        <f>1901+0.4*(1975-1901)</f>
+        <v>1930.6</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>1975</v>
+      </c>
       <c r="T38" s="3">
         <v>1726</v>
       </c>
@@ -3874,7 +4311,31 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="39" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="15">
+        <f t="shared" ref="L39:Q39" si="3">-1/L38</f>
+        <v>-5.7937427578215526E-4</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.631264782070053E-4</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.472255663784612E-4</v>
+      </c>
+      <c r="O39" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.3118028258791034E-4</v>
+      </c>
+      <c r="P39" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.1797368693670361E-4</v>
+      </c>
+      <c r="Q39" s="15">
+        <f t="shared" si="3"/>
+        <v>-5.0632911392405066E-4</v>
+      </c>
       <c r="T39" s="3">
         <v>1775.8</v>
       </c>
@@ -3901,7 +4362,25 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="40" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="15">
+        <v>-2.5414129120704159</v>
+      </c>
+      <c r="M40" s="15">
+        <v>-2.0961324329892657</v>
+      </c>
+      <c r="N40" s="15">
+        <v>-1.6740470002637498</v>
+      </c>
+      <c r="O40" s="15">
+        <v>-1.3437765296346198</v>
+      </c>
+      <c r="P40" s="15">
+        <v>-1.0080602571279731</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>-0.70378294573341837</v>
+      </c>
       <c r="T40" s="3">
         <v>1827.4</v>
       </c>
@@ -3928,7 +4407,25 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="41" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="15">
+        <v>0.99984116842064097</v>
+      </c>
+      <c r="M41" s="15">
+        <v>0.99967730582369929</v>
+      </c>
+      <c r="N41" s="15">
+        <v>0.99925621325203196</v>
+      </c>
+      <c r="O41" s="15">
+        <v>0.99960170454529118</v>
+      </c>
+      <c r="P41" s="15">
+        <v>0.99991021445392647</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>0.99981403215932763</v>
+      </c>
       <c r="T41" s="3">
         <v>1882.6</v>
       </c>
@@ -3955,7 +4452,7 @@
         <v>56.11</v>
       </c>
     </row>
-    <row r="42" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T42" s="3">
         <v>1930.6</v>
       </c>
@@ -3982,7 +4479,7 @@
         <v>120.65</v>
       </c>
     </row>
-    <row r="43" spans="20:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T43" s="3">
         <v>1975</v>
       </c>

--- a/work_function/datasheet.xlsx
+++ b/work_function/datasheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Phy_op\work_function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A052CAE-68DF-4D31-A771-E6ECDEE8EB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCD999F-8901-4BE2-9E3D-370F82B033E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,6 +243,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,86 +273,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1592,10 +1524,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>lg(I_e/T^2)~1/T</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>曲线</a:t>
             </a:r>
@@ -1633,7 +1561,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7452318880670769E-2"/>
+          <c:y val="0.12729436029185898"/>
+          <c:w val="0.76080801532725495"/>
+          <c:h val="0.68588058355839776"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3070,15 +3008,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>71802</xdr:colOff>
+      <xdr:colOff>71801</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>17957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>529002</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>184980</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>563216</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3684,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3726,25 +3664,25 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="7">
         <v>6</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="7">
         <v>7</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="7">
         <v>9</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="7">
         <v>10</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="7">
         <v>11</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="7">
         <v>12</v>
       </c>
       <c r="J3" t="s">
@@ -3776,31 +3714,31 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="7">
         <f t="shared" ref="B4:H9" si="0">LOG10(M2)-3</f>
         <v>-2.4881166390211256</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>-2.4801720062242811</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>-2.4710832997223453</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>-2.4621809049267256</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>-2.4534573365218688</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>-2.4449055514216811</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>-2.4353339357479107</v>
       </c>
@@ -3833,31 +3771,31 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>-2.0438315695246367</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="7">
         <f t="shared" si="0"/>
         <v>-2.034798298974088</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>-2.0268721464003012</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>-2.0177287669604316</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>-2.0096611452123985</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>-2.000869458712629</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>-1.9909742579130898</v>
       </c>
@@ -3890,31 +3828,31 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>-1.6259852597080884</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="7">
         <f t="shared" si="0"/>
         <v>-1.6178027896225464</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>-1.6092414712612828</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>-1.6024075659618833</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>-1.5951662833800619</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
         <v>-1.5855280503706972</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>-1.5774101601485178</v>
       </c>
@@ -3947,31 +3885,31 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>-1.2974833025618495</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="7">
         <f t="shared" si="0"/>
         <v>-1.290051983489239</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>-1.2824127031445396</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>-1.2748236985808628</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>-1.2677671197795022</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>-1.2597952644925503</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>-1.2509597312965428</v>
       </c>
@@ -4004,31 +3942,31 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>-0.96345094552084776</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="7">
         <f t="shared" si="0"/>
         <v>-0.95577392288731744</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>-0.94842304152746015</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>-0.94055018749203922</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>-0.9337486380310378</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="7">
         <f t="shared" si="0"/>
         <v>-0.92617171559889133</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>-0.91847267375519515</v>
       </c>
@@ -4040,31 +3978,31 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>-0.6599526823386066</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="7">
         <f t="shared" si="0"/>
         <v>-0.6520848134983086</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>-0.64493179365114939</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>-0.63770606203576907</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>-0.63096977819084676</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>-0.62305824285324141</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>-0.61546738450575145</v>
       </c>
@@ -4161,7 +4099,7 @@
     </row>
     <row r="18" spans="1:19" ht="44.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S19" s="14"/>
+      <c r="S19" s="6"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -4239,50 +4177,50 @@
     </row>
     <row r="35" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="12:28" x14ac:dyDescent="0.25">
-      <c r="T36" s="8" t="s">
+      <c r="T36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
     </row>
     <row r="37" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T37" s="9"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
     </row>
     <row r="38" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L38" s="15">
+      <c r="L38" s="7">
         <v>1726</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="7">
         <f>1726+0.6*(1809-1726)</f>
         <v>1775.8</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="7">
         <f>1809+0.2*(1901-1809)</f>
         <v>1827.4</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="7">
         <f>1901-0.2*(1901-1809)</f>
         <v>1882.6</v>
       </c>
-      <c r="P38" s="15">
+      <c r="P38" s="7">
         <f>1901+0.4*(1975-1901)</f>
         <v>1930.6</v>
       </c>
-      <c r="Q38" s="15">
+      <c r="Q38" s="7">
         <v>1975</v>
       </c>
       <c r="T38" s="3">
@@ -4312,27 +4250,27 @@
       </c>
     </row>
     <row r="39" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="15">
+      <c r="L39" s="7">
         <f t="shared" ref="L39:Q39" si="3">-1/L38</f>
         <v>-5.7937427578215526E-4</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="7">
         <f t="shared" si="3"/>
         <v>-5.631264782070053E-4</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N39" s="7">
         <f t="shared" si="3"/>
         <v>-5.472255663784612E-4</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="7">
         <f t="shared" si="3"/>
         <v>-5.3118028258791034E-4</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="7">
         <f t="shared" si="3"/>
         <v>-5.1797368693670361E-4</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="7">
         <f t="shared" si="3"/>
         <v>-5.0632911392405066E-4</v>
       </c>
@@ -4363,22 +4301,22 @@
       </c>
     </row>
     <row r="40" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="15">
+      <c r="L40" s="7">
         <v>-2.5414129120704159</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="7">
         <v>-2.0961324329892657</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N40" s="7">
         <v>-1.6740470002637498</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="7">
         <v>-1.3437765296346198</v>
       </c>
-      <c r="P40" s="15">
+      <c r="P40" s="7">
         <v>-1.0080602571279731</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="7">
         <v>-0.70378294573341837</v>
       </c>
       <c r="T40" s="3">
@@ -4408,22 +4346,22 @@
       </c>
     </row>
     <row r="41" spans="12:28" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="15">
+      <c r="L41" s="7">
         <v>0.99984116842064097</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="7">
         <v>0.99967730582369929</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N41" s="7">
         <v>0.99925621325203196</v>
       </c>
-      <c r="O41" s="15">
+      <c r="O41" s="7">
         <v>0.99960170454529118</v>
       </c>
-      <c r="P41" s="15">
+      <c r="P41" s="7">
         <v>0.99991021445392647</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="7">
         <v>0.99981403215932763</v>
       </c>
       <c r="T41" s="3">
